--- a/biology/Biochimie/Découpleur_(biochimie)/Découpleur_(biochimie).xlsx
+++ b/biology/Biochimie/Découpleur_(biochimie)/Découpleur_(biochimie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9coupleur_(biochimie)</t>
+          <t>Découpleur_(biochimie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, un découpleur ou agent découplant est un composé capable de perturber la phosphorylation oxydative chez les procaryotes et les mitochondries, ou la photophosphorylation chez les chloroplastes et les cyanobactéries en dissociant les réactions de synthèse de l'ATP de la chaîne de transport d'électrons. Il en résulte que la cellule ou la  mitochondrie dépense de l'énergie pour générer une force proton-motrice, mais cette dernière est dissipée avant que l'ATP synthase ne puisse recapturer l'énergie et l'utiliser pour produire l'ATP. Les découpleurs sont capables de transporter les protons à travers les membranes mitochondriales et lipidiques. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9coupleur_(biochimie)</t>
+          <t>Découpleur_(biochimie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les découpleurs classiques ont cinq propriétés[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les découpleurs classiques ont cinq propriétés :
 la libération complète du contrôle respiratoire
 la substitution de tous les processus couplés (synthèse d'ATP, transhydrogénation, flux d'électrons inverse (en), transport actif de cations, etc.) par un transport cyclique de protons médié par le découpleur
 l'élimination de tous les gradients protoniques et cationiques générés à travers la membrane mitochondriale ou procaryote
 pas de discrimination dans ces actions entre un site de couplage et un autre
 pas de discrimination entre les processus couplés commandés par le transfert d'électrons et les processus couplés commandés par l'hydrolyse de l'ATP
-On appelle « pseudo-découpleurs » les composés présentent une ou plusieurs de ces propriétés, mais pas toutes. Ils doivent donc être combinés avec un ou plusieurs autres pseudo-découpleurs pour obtenir un découplage complet[1].
+On appelle « pseudo-découpleurs » les composés présentent une ou plusieurs de ces propriétés, mais pas toutes. Ils doivent donc être combinés avec un ou plusieurs autres pseudo-découpleurs pour obtenir un découplage complet.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9coupleur_(biochimie)</t>
+          <t>Découpleur_(biochimie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Découpleurs classiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les composés de cette liste sont connus pour être des découpleurs classiques[1],[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les composés de cette liste sont connus pour être des découpleurs classiques, :
 2,4-Dinitrophénol (DNP)
 2,5-Dinitrophénol
 1799 (α,α′-bis(hexafluoracetonyl)acetone)
@@ -591,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9coupleur_(biochimie)</t>
+          <t>Découpleur_(biochimie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,9 +625,11 @@
           <t>Pseudo-découpleurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les composés de cette liste sont connus pour être des pseudo-découpleurs[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les composés de cette liste sont connus pour être des pseudo-découpleurs :
 Acides gras à longue chaîne, tels que l'acide linoléique
 Acide picrique (2,4,6-trinitrophénol)
 Arséniate
